--- a/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5964662-5E9C-44CC-A9ED-B48145C48D23}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA46A52-300F-4613-8573-7C133C16DD1C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1024,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="11">
-        <v>2.2200000000000002</v>
+        <v>7.22</v>
       </c>
       <c r="G7" s="20">
         <v>0.9</v>
@@ -1510,7 +1510,7 @@
         <v>103</v>
       </c>
       <c r="F27" s="11">
-        <v>0.55000000000000004</v>
+        <v>5.55</v>
       </c>
       <c r="G27" s="20">
         <v>0.9</v>

--- a/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA46A52-300F-4613-8573-7C133C16DD1C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90DDAA0-801C-447F-86B4-BB8F08F36E48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
   <si>
     <t>Columna</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>REGISTRAR MENSUALIDAD DEL MAESTRO</t>
+  </si>
+  <si>
+    <t>DESCARTADO</t>
+  </si>
+  <si>
+    <t>El CU fue descartado ya que se repite en el CU 20 Generar reportes mensuales</t>
   </si>
 </sst>
 </file>
@@ -906,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1182,7 @@
         <v>103</v>
       </c>
       <c r="F13" s="11">
-        <v>0.41</v>
+        <v>1.41</v>
       </c>
       <c r="G13" s="20">
         <v>0.9</v>
@@ -1365,8 +1371,8 @@
       <c r="E21" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
+      <c r="F21" s="21">
+        <v>1</v>
       </c>
       <c r="G21" s="20">
         <v>0.9</v>
@@ -1390,7 +1396,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="20">
         <v>0.9</v>
@@ -1411,7 +1417,7 @@
         <v>117</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -1422,7 +1428,9 @@
       <c r="H23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">

--- a/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90DDAA0-801C-447F-86B4-BB8F08F36E48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5F257-40C3-4B04-BDD1-EFA7AE94265C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1372,7 @@
         <v>103</v>
       </c>
       <c r="F21" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="20">
         <v>0.9</v>

--- a/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5F257-40C3-4B04-BDD1-EFA7AE94265C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147283DA-12FD-42A3-8E96-1983B81896D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +462,14 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -518,7 +526,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -574,6 +582,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -913,7 +924,7 @@
   <dimension ref="B1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1383,7 @@
         <v>103</v>
       </c>
       <c r="F21" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="20">
         <v>0.9</v>
@@ -1396,7 +1407,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="20">
         <v>0.9</v>
@@ -1428,7 +1439,7 @@
       <c r="H23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="23" t="s">
         <v>124</v>
       </c>
     </row>

--- a/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147283DA-12FD-42A3-8E96-1983B81896D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AACDEFC-5B85-45B5-8734-8DAAB256B5D9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1383,7 @@
         <v>103</v>
       </c>
       <c r="F21" s="21">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="G21" s="20">
         <v>0.9</v>

--- a/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AACDEFC-5B85-45B5-8734-8DAAB256B5D9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85591013-64D6-4282-9D85-BF6595F7BFF3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
   <si>
     <t>Columna</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>El CU fue descartado ya que se repite en el CU 20 Generar reportes mensuales</t>
+  </si>
+  <si>
+    <t>Hecho</t>
   </si>
 </sst>
 </file>
@@ -923,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1336,7 @@
       <c r="D19" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="21" t="s">
         <v>116</v>
       </c>
       <c r="F19" s="11">
@@ -1380,10 +1383,10 @@
         <v>66</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F21" s="21">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="G21" s="20">
         <v>0.9</v>
@@ -1404,10 +1407,10 @@
         <v>67</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="F22" s="11">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G22" s="20">
         <v>0.9</v>

--- a/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85591013-64D6-4282-9D85-BF6595F7BFF3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0461A7A2-E055-4609-AE40-74EE60CD712A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
   <si>
     <t>Columna</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>El CU fue descartado ya que se repite en el CU 20 Generar reportes mensuales</t>
-  </si>
-  <si>
-    <t>Hecho</t>
   </si>
 </sst>
 </file>
@@ -926,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,10 +1190,10 @@
         <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F13" s="11">
-        <v>1.41</v>
+        <v>4.41</v>
       </c>
       <c r="G13" s="20">
         <v>0.9</v>
@@ -1407,7 +1404,7 @@
         <v>67</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F22" s="11">
         <v>3.5</v>

--- a/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 7/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0461A7A2-E055-4609-AE40-74EE60CD712A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01D69B1-06F9-4F62-8AB6-452102D48868}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,9 +397,6 @@
     <t>En este caso de uso el Director podrá consultar alguno de los egresos registrados anteriormente ya sea de Facebook o variados</t>
   </si>
   <si>
-    <t>CONSULTAR INFORMACION DE MAESTR</t>
-  </si>
-  <si>
     <t>EDITAR MAESTRO</t>
   </si>
   <si>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>El CU fue descartado ya que se repite en el CU 20 Generar reportes mensuales</t>
+  </si>
+  <si>
+    <t>CONSULTAR INFORMACION DE MAESTRO</t>
   </si>
 </sst>
 </file>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,10 +1014,10 @@
         <v>65</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F6" s="11">
-        <v>2.66</v>
+        <v>13.66</v>
       </c>
       <c r="G6" s="20">
         <v>0.9</v>
@@ -1038,10 +1038,10 @@
         <v>81</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F7" s="11">
-        <v>7.22</v>
+        <v>11.22</v>
       </c>
       <c r="G7" s="20">
         <v>0.9</v>
@@ -1307,7 +1307,7 @@
         <v>89</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>116</v>
@@ -1331,7 +1331,7 @@
         <v>90</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>116</v>
@@ -1353,7 +1353,7 @@
         <v>91</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>116</v>
@@ -1428,7 +1428,7 @@
         <v>117</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>64</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
         <v>92</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>116</v>
@@ -1526,10 +1526,10 @@
         <v>69</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F27" s="11">
-        <v>5.55</v>
+        <v>10.55</v>
       </c>
       <c r="G27" s="20">
         <v>0.9</v>
